--- a/Kubernetes parancsok.xlsx
+++ b/Kubernetes parancsok.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programing\Git\Kubernetes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="92">
   <si>
     <t xml:space="preserve">Parancs </t>
   </si>
@@ -233,13 +233,86 @@
   </si>
   <si>
     <t>stdin: true   '133'</t>
+  </si>
+  <si>
+    <t>kubectl logs kubia-ssl -c kubia</t>
+  </si>
+  <si>
+    <t>DISPLAYING LOGS OF PODS WITH MULTIPLE CONTAINERS</t>
+  </si>
+  <si>
+    <t>kubectl logs kubia-ssl --all-containers</t>
+  </si>
+  <si>
+    <t>kubectl get pods -w</t>
+  </si>
+  <si>
+    <t>Listing pods in real time</t>
+  </si>
+  <si>
+    <t>kubectl get events -w</t>
+  </si>
+  <si>
+    <t>Events recorded after deploying a Pod object in real time</t>
+  </si>
+  <si>
+    <t>ENTERING A RUNNING INIT CONTAINER</t>
+  </si>
+  <si>
+    <t>kubectl exec -it kubia-ssl-c init-demo -- sh</t>
+  </si>
+  <si>
+    <t>DELETING A SINGLE POD</t>
+  </si>
+  <si>
+    <t>kubectl delete po kubia</t>
+  </si>
+  <si>
+    <t>DELETING MULTIPLE PODS WITH A SINGLE COMMAND</t>
+  </si>
+  <si>
+    <t>kubectl delete po kubia-init kubia-init-slow</t>
+  </si>
+  <si>
+    <t>$ kubectl delete -f kubia-ssl.yaml 
+pod "kubia-ssl" deleted</t>
+  </si>
+  <si>
+    <t>Deleting objects defined in manifest files</t>
+  </si>
+  <si>
+    <t>DELETING OBJECTS FROM MULTIPLE MANIFEST FILES</t>
+  </si>
+  <si>
+    <t>kubectl delete -f kubia.yaml,kubia-ssl.yaml</t>
+  </si>
+  <si>
+    <t>kubectl delete -f Chapter05/</t>
+  </si>
+  <si>
+    <t>You can then delete the pods using the same method</t>
+  </si>
+  <si>
+    <t>Deleting all pods</t>
+  </si>
+  <si>
+    <t>kubectl delete po --all</t>
+  </si>
+  <si>
+    <t>kubectl delete all --all</t>
+  </si>
+  <si>
+    <t>Deleting objects of most kinds</t>
+  </si>
+  <si>
+    <t>Liveness probes can only be used in the pod’s regular containers. They can’t be defined in init containers.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -289,8 +362,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -307,6 +387,11 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -317,13 +402,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -349,8 +435,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="4" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="Bad" xfId="4" builtinId="27"/>
     <cellStyle name="Good" xfId="3" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
@@ -632,18 +722,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46.7109375" customWidth="1"/>
-    <col min="2" max="2" width="44.140625" customWidth="1"/>
+    <col min="2" max="2" width="51.85546875" customWidth="1"/>
     <col min="3" max="3" width="32.5703125" customWidth="1"/>
     <col min="4" max="4" width="67.42578125" customWidth="1"/>
+    <col min="5" max="5" width="49.42578125" customWidth="1"/>
     <col min="11" max="11" width="29.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -664,7 +755,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -677,11 +768,14 @@
       <c r="D2" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="E2" s="11" t="s">
+        <v>91</v>
+      </c>
       <c r="K2" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -711,10 +805,10 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>67</v>
@@ -725,202 +819,298 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B8" s="4" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>10</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>39</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" t="s">
-        <v>46</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>47</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B24" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" t="s">
-        <v>57</v>
+        <v>51</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>64</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B32" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>80</v>
+      </c>
+      <c r="B37" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/Kubernetes parancsok.xlsx
+++ b/Kubernetes parancsok.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="95">
   <si>
     <t xml:space="preserve">Parancs </t>
   </si>
@@ -306,6 +307,15 @@
   </si>
   <si>
     <t>Liveness probes can only be used in the pod’s regular containers. They can’t be defined in init containers.</t>
+  </si>
+  <si>
+    <t>exec and the tcpSocket liveness probe</t>
+  </si>
+  <si>
+    <t>SPECIFYING THE DELETION GRACE PERIOD WHEN DELETING THE POD</t>
+  </si>
+  <si>
+    <t>kubectl delete po kubia-ssl --grace-period 10</t>
   </si>
 </sst>
 </file>
@@ -722,10 +732,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K42"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -817,233 +827,233 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
+        <v>94</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>10</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B19" s="3" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>45</v>
+        <v>73</v>
+      </c>
+      <c r="B21" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>42</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+    <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>49</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="27" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B27" s="3" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>55</v>
-      </c>
-      <c r="B27" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>61</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
+    <row r="32" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B32" s="3" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>64</v>
-      </c>
-      <c r="B32" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B33" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B34" t="s">
         <v>69</v>
@@ -1051,66 +1061,79 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B35" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B36" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>80</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+    <row r="39" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>84</v>
-      </c>
-      <c r="B39" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B40" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B41" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>89</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/Kubernetes parancsok.xlsx
+++ b/Kubernetes parancsok.xlsx
@@ -15,7 +15,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="115">
   <si>
     <t xml:space="preserve">Parancs </t>
   </si>
@@ -316,6 +315,67 @@
   </si>
   <si>
     <t>kubectl delete po kubia-ssl --grace-period 10</t>
+  </si>
+  <si>
+    <t>kubectl edit deployment &lt;name&gt;</t>
+  </si>
+  <si>
+    <t>editing deployment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kubectl exec  -it &lt;pod name&gt; -- bin/bash </t>
+  </si>
+  <si>
+    <t>connect to pod on an interactive terminal</t>
+  </si>
+  <si>
+    <t>vi deployment.yaml</t>
+  </si>
+  <si>
+    <t>change in deployment</t>
+  </si>
+  <si>
+    <t>kubectl apply -f deployment.yaml</t>
+  </si>
+  <si>
+    <t>start changed deployment</t>
+  </si>
+  <si>
+    <t>kubectl get deployment nginx-deployment -o yaml</t>
+  </si>
+  <si>
+    <t>get deployment in yaml format</t>
+  </si>
+  <si>
+    <t>kubectl get deployment nginx-deployment -o yaml 
+&gt; nginx-deployment-result.yaml</t>
+  </si>
+  <si>
+    <t>create configuration yaml file output</t>
+  </si>
+  <si>
+    <t>kubectl delete --all pods/deployments</t>
+  </si>
+  <si>
+    <t>Deleting all pods or deployments what you take</t>
+  </si>
+  <si>
+    <t>kubectl get all</t>
+  </si>
+  <si>
+    <t>get all components</t>
+  </si>
+  <si>
+    <t>get pod --watch</t>
+  </si>
+  <si>
+    <t>kubectl delete -f &lt;path/to/file&gt;</t>
+  </si>
+  <si>
+    <t>minikube service mongo-express-service</t>
+  </si>
+  <si>
+    <t>expose service</t>
   </si>
 </sst>
 </file>
@@ -419,7 +479,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -448,6 +508,7 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="4" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="4" builtinId="27"/>
@@ -732,10 +793,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K44"/>
+  <dimension ref="A1:K179"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1029,39 +1090,39 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>97</v>
+      </c>
+      <c r="B31" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>61</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
+    <row r="33" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B33" s="3" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>64</v>
-      </c>
-      <c r="B33" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B34" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B35" t="s">
         <v>69</v>
@@ -1069,72 +1130,1040 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B36" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B37" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>78</v>
+      </c>
+      <c r="B38" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>80</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+    <row r="40" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>84</v>
-      </c>
-      <c r="B40" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B41" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>88</v>
+      </c>
+      <c r="B43" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>89</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
         <v>92</v>
       </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>95</v>
+      </c>
+      <c r="B46" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>99</v>
+      </c>
+      <c r="B48" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>101</v>
+      </c>
+      <c r="B49" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>103</v>
+      </c>
+      <c r="B50" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="12"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="12"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="12"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="12"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="12"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="12"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="12"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="12"/>
+      <c r="B64" s="12"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="12"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="12"/>
+      <c r="B66" s="12"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="12"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="12"/>
+      <c r="B68" s="12"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="12"/>
+      <c r="B69" s="12"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="12"/>
+      <c r="B70" s="12"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="12"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="12"/>
+      <c r="B72" s="12"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="12"/>
+      <c r="B73" s="12"/>
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="12"/>
+      <c r="B74" s="12"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="12"/>
+      <c r="B75" s="12"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="12"/>
+      <c r="B76" s="12"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="12"/>
+      <c r="B77" s="12"/>
+      <c r="C77" s="12"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="12"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="12"/>
+      <c r="B78" s="12"/>
+      <c r="C78" s="12"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="12"/>
+      <c r="B79" s="12"/>
+      <c r="C79" s="12"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="12"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="12"/>
+      <c r="B80" s="12"/>
+      <c r="C80" s="12"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="12"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="12"/>
+      <c r="B81" s="12"/>
+      <c r="C81" s="12"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="12"/>
+      <c r="B82" s="12"/>
+      <c r="C82" s="12"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="12"/>
+      <c r="B83" s="12"/>
+      <c r="C83" s="12"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="12"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="12"/>
+      <c r="B84" s="12"/>
+      <c r="C84" s="12"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="12"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="12"/>
+      <c r="B85" s="12"/>
+      <c r="C85" s="12"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="12"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="12"/>
+      <c r="B86" s="12"/>
+      <c r="C86" s="12"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="12"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="12"/>
+      <c r="B87" s="12"/>
+      <c r="C87" s="12"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="12"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="12"/>
+      <c r="B88" s="12"/>
+      <c r="C88" s="12"/>
+      <c r="D88" s="12"/>
+      <c r="E88" s="12"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="12"/>
+      <c r="B89" s="12"/>
+      <c r="C89" s="12"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="12"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="12"/>
+      <c r="B90" s="12"/>
+      <c r="C90" s="12"/>
+      <c r="D90" s="12"/>
+      <c r="E90" s="12"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="12"/>
+      <c r="B91" s="12"/>
+      <c r="C91" s="12"/>
+      <c r="D91" s="12"/>
+      <c r="E91" s="12"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="12"/>
+      <c r="B92" s="12"/>
+      <c r="C92" s="12"/>
+      <c r="D92" s="12"/>
+      <c r="E92" s="12"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="12"/>
+      <c r="B93" s="12"/>
+      <c r="C93" s="12"/>
+      <c r="D93" s="12"/>
+      <c r="E93" s="12"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="12"/>
+      <c r="B94" s="12"/>
+      <c r="C94" s="12"/>
+      <c r="D94" s="12"/>
+      <c r="E94" s="12"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="12"/>
+      <c r="B95" s="12"/>
+      <c r="C95" s="12"/>
+      <c r="D95" s="12"/>
+      <c r="E95" s="12"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="12"/>
+      <c r="B96" s="12"/>
+      <c r="C96" s="12"/>
+      <c r="D96" s="12"/>
+      <c r="E96" s="12"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="12"/>
+      <c r="B97" s="12"/>
+      <c r="C97" s="12"/>
+      <c r="D97" s="12"/>
+      <c r="E97" s="12"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="12"/>
+      <c r="B98" s="12"/>
+      <c r="C98" s="12"/>
+      <c r="D98" s="12"/>
+      <c r="E98" s="12"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="12"/>
+      <c r="B99" s="12"/>
+      <c r="C99" s="12"/>
+      <c r="D99" s="12"/>
+      <c r="E99" s="12"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="12"/>
+      <c r="B100" s="12"/>
+      <c r="C100" s="12"/>
+      <c r="D100" s="12"/>
+      <c r="E100" s="12"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="12"/>
+      <c r="B101" s="12"/>
+      <c r="C101" s="12"/>
+      <c r="D101" s="12"/>
+      <c r="E101" s="12"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="12"/>
+      <c r="B102" s="12"/>
+      <c r="C102" s="12"/>
+      <c r="D102" s="12"/>
+      <c r="E102" s="12"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="12"/>
+      <c r="B103" s="12"/>
+      <c r="C103" s="12"/>
+      <c r="D103" s="12"/>
+      <c r="E103" s="12"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="12"/>
+      <c r="B104" s="12"/>
+      <c r="C104" s="12"/>
+      <c r="D104" s="12"/>
+      <c r="E104" s="12"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="12"/>
+      <c r="B105" s="12"/>
+      <c r="C105" s="12"/>
+      <c r="D105" s="12"/>
+      <c r="E105" s="12"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="12"/>
+      <c r="B106" s="12"/>
+      <c r="C106" s="12"/>
+      <c r="D106" s="12"/>
+      <c r="E106" s="12"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="12"/>
+      <c r="B107" s="12"/>
+      <c r="C107" s="12"/>
+      <c r="D107" s="12"/>
+      <c r="E107" s="12"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="12"/>
+      <c r="B108" s="12"/>
+      <c r="C108" s="12"/>
+      <c r="D108" s="12"/>
+      <c r="E108" s="12"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="12"/>
+      <c r="B109" s="12"/>
+      <c r="C109" s="12"/>
+      <c r="D109" s="12"/>
+      <c r="E109" s="12"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="12"/>
+      <c r="B110" s="12"/>
+      <c r="C110" s="12"/>
+      <c r="D110" s="12"/>
+      <c r="E110" s="12"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="12"/>
+      <c r="B111" s="12"/>
+      <c r="C111" s="12"/>
+      <c r="D111" s="12"/>
+      <c r="E111" s="12"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="12"/>
+      <c r="B112" s="12"/>
+      <c r="C112" s="12"/>
+      <c r="D112" s="12"/>
+      <c r="E112" s="12"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="12"/>
+      <c r="B113" s="12"/>
+      <c r="C113" s="12"/>
+      <c r="D113" s="12"/>
+      <c r="E113" s="12"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="12"/>
+      <c r="B114" s="12"/>
+      <c r="C114" s="12"/>
+      <c r="D114" s="12"/>
+      <c r="E114" s="12"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="12"/>
+      <c r="B115" s="12"/>
+      <c r="C115" s="12"/>
+      <c r="D115" s="12"/>
+      <c r="E115" s="12"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="12"/>
+      <c r="B116" s="12"/>
+      <c r="C116" s="12"/>
+      <c r="D116" s="12"/>
+      <c r="E116" s="12"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="12"/>
+      <c r="B117" s="12"/>
+      <c r="C117" s="12"/>
+      <c r="D117" s="12"/>
+      <c r="E117" s="12"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="12"/>
+      <c r="B118" s="12"/>
+      <c r="C118" s="12"/>
+      <c r="D118" s="12"/>
+      <c r="E118" s="12"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="12"/>
+      <c r="B119" s="12"/>
+      <c r="C119" s="12"/>
+      <c r="D119" s="12"/>
+      <c r="E119" s="12"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="12"/>
+      <c r="B120" s="12"/>
+      <c r="C120" s="12"/>
+      <c r="D120" s="12"/>
+      <c r="E120" s="12"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="12"/>
+      <c r="B121" s="12"/>
+      <c r="C121" s="12"/>
+      <c r="D121" s="12"/>
+      <c r="E121" s="12"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="12"/>
+      <c r="B122" s="12"/>
+      <c r="C122" s="12"/>
+      <c r="D122" s="12"/>
+      <c r="E122" s="12"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="12"/>
+      <c r="B123" s="12"/>
+      <c r="C123" s="12"/>
+      <c r="D123" s="12"/>
+      <c r="E123" s="12"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="12"/>
+      <c r="B124" s="12"/>
+      <c r="C124" s="12"/>
+      <c r="D124" s="12"/>
+      <c r="E124" s="12"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="12"/>
+      <c r="B125" s="12"/>
+      <c r="C125" s="12"/>
+      <c r="D125" s="12"/>
+      <c r="E125" s="12"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="12"/>
+      <c r="B126" s="12"/>
+      <c r="C126" s="12"/>
+      <c r="D126" s="12"/>
+      <c r="E126" s="12"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="12"/>
+      <c r="B127" s="12"/>
+      <c r="C127" s="12"/>
+      <c r="D127" s="12"/>
+      <c r="E127" s="12"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="12"/>
+      <c r="B128" s="12"/>
+      <c r="C128" s="12"/>
+      <c r="D128" s="12"/>
+      <c r="E128" s="12"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="12"/>
+      <c r="B129" s="12"/>
+      <c r="C129" s="12"/>
+      <c r="D129" s="12"/>
+      <c r="E129" s="12"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="12"/>
+      <c r="B130" s="12"/>
+      <c r="C130" s="12"/>
+      <c r="D130" s="12"/>
+      <c r="E130" s="12"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="12"/>
+      <c r="B131" s="12"/>
+      <c r="C131" s="12"/>
+      <c r="D131" s="12"/>
+      <c r="E131" s="12"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="12"/>
+      <c r="B132" s="12"/>
+      <c r="C132" s="12"/>
+      <c r="D132" s="12"/>
+      <c r="E132" s="12"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="12"/>
+      <c r="B133" s="12"/>
+      <c r="C133" s="12"/>
+      <c r="D133" s="12"/>
+      <c r="E133" s="12"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="12"/>
+      <c r="B134" s="12"/>
+      <c r="C134" s="12"/>
+      <c r="D134" s="12"/>
+      <c r="E134" s="12"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="12"/>
+      <c r="B135" s="12"/>
+      <c r="C135" s="12"/>
+      <c r="D135" s="12"/>
+      <c r="E135" s="12"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="12"/>
+      <c r="B136" s="12"/>
+      <c r="C136" s="12"/>
+      <c r="D136" s="12"/>
+      <c r="E136" s="12"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="12"/>
+      <c r="B137" s="12"/>
+      <c r="C137" s="12"/>
+      <c r="D137" s="12"/>
+      <c r="E137" s="12"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="12"/>
+      <c r="B138" s="12"/>
+      <c r="C138" s="12"/>
+      <c r="D138" s="12"/>
+      <c r="E138" s="12"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="12"/>
+      <c r="B139" s="12"/>
+      <c r="C139" s="12"/>
+      <c r="D139" s="12"/>
+      <c r="E139" s="12"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="12"/>
+      <c r="B140" s="12"/>
+      <c r="C140" s="12"/>
+      <c r="D140" s="12"/>
+      <c r="E140" s="12"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="12"/>
+      <c r="B141" s="12"/>
+      <c r="C141" s="12"/>
+      <c r="D141" s="12"/>
+      <c r="E141" s="12"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="12"/>
+      <c r="B142" s="12"/>
+      <c r="C142" s="12"/>
+      <c r="D142" s="12"/>
+      <c r="E142" s="12"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="12"/>
+      <c r="B143" s="12"/>
+      <c r="C143" s="12"/>
+      <c r="D143" s="12"/>
+      <c r="E143" s="12"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="12"/>
+      <c r="B144" s="12"/>
+      <c r="C144" s="12"/>
+      <c r="D144" s="12"/>
+      <c r="E144" s="12"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="12"/>
+      <c r="B145" s="12"/>
+      <c r="C145" s="12"/>
+      <c r="D145" s="12"/>
+      <c r="E145" s="12"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="12"/>
+      <c r="B146" s="12"/>
+      <c r="C146" s="12"/>
+      <c r="D146" s="12"/>
+      <c r="E146" s="12"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="12"/>
+      <c r="B147" s="12"/>
+      <c r="C147" s="12"/>
+      <c r="D147" s="12"/>
+      <c r="E147" s="12"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="12"/>
+      <c r="B148" s="12"/>
+      <c r="C148" s="12"/>
+      <c r="D148" s="12"/>
+      <c r="E148" s="12"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="12"/>
+      <c r="B149" s="12"/>
+      <c r="C149" s="12"/>
+      <c r="D149" s="12"/>
+      <c r="E149" s="12"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="12"/>
+      <c r="B150" s="12"/>
+      <c r="C150" s="12"/>
+      <c r="D150" s="12"/>
+      <c r="E150" s="12"/>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="12"/>
+      <c r="B151" s="12"/>
+      <c r="C151" s="12"/>
+      <c r="D151" s="12"/>
+      <c r="E151" s="12"/>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="12"/>
+      <c r="B152" s="12"/>
+      <c r="C152" s="12"/>
+      <c r="D152" s="12"/>
+      <c r="E152" s="12"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="12"/>
+      <c r="B153" s="12"/>
+      <c r="C153" s="12"/>
+      <c r="D153" s="12"/>
+      <c r="E153" s="12"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="12"/>
+      <c r="B154" s="12"/>
+      <c r="C154" s="12"/>
+      <c r="D154" s="12"/>
+      <c r="E154" s="12"/>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="12"/>
+      <c r="B155" s="12"/>
+      <c r="C155" s="12"/>
+      <c r="D155" s="12"/>
+      <c r="E155" s="12"/>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="12"/>
+      <c r="B156" s="12"/>
+      <c r="C156" s="12"/>
+      <c r="D156" s="12"/>
+      <c r="E156" s="12"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="12"/>
+      <c r="B157" s="12"/>
+      <c r="C157" s="12"/>
+      <c r="D157" s="12"/>
+      <c r="E157" s="12"/>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="12"/>
+      <c r="B158" s="12"/>
+      <c r="C158" s="12"/>
+      <c r="D158" s="12"/>
+      <c r="E158" s="12"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="12"/>
+      <c r="B159" s="12"/>
+      <c r="C159" s="12"/>
+      <c r="D159" s="12"/>
+      <c r="E159" s="12"/>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="12"/>
+      <c r="B160" s="12"/>
+      <c r="C160" s="12"/>
+      <c r="D160" s="12"/>
+      <c r="E160" s="12"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="12"/>
+      <c r="B161" s="12"/>
+      <c r="C161" s="12"/>
+      <c r="D161" s="12"/>
+      <c r="E161" s="12"/>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="12"/>
+      <c r="B162" s="12"/>
+      <c r="C162" s="12"/>
+      <c r="D162" s="12"/>
+      <c r="E162" s="12"/>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="12"/>
+      <c r="B163" s="12"/>
+      <c r="C163" s="12"/>
+      <c r="D163" s="12"/>
+      <c r="E163" s="12"/>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="12"/>
+      <c r="B164" s="12"/>
+      <c r="C164" s="12"/>
+      <c r="D164" s="12"/>
+      <c r="E164" s="12"/>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="12"/>
+      <c r="B165" s="12"/>
+      <c r="C165" s="12"/>
+      <c r="D165" s="12"/>
+      <c r="E165" s="12"/>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="12"/>
+      <c r="B166" s="12"/>
+      <c r="C166" s="12"/>
+      <c r="D166" s="12"/>
+      <c r="E166" s="12"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="12"/>
+      <c r="B167" s="12"/>
+      <c r="C167" s="12"/>
+      <c r="D167" s="12"/>
+      <c r="E167" s="12"/>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="12"/>
+      <c r="B168" s="12"/>
+      <c r="C168" s="12"/>
+      <c r="D168" s="12"/>
+      <c r="E168" s="12"/>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="12"/>
+      <c r="B169" s="12"/>
+      <c r="C169" s="12"/>
+      <c r="D169" s="12"/>
+      <c r="E169" s="12"/>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="12"/>
+      <c r="B170" s="12"/>
+      <c r="C170" s="12"/>
+      <c r="D170" s="12"/>
+      <c r="E170" s="12"/>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" s="12"/>
+      <c r="B171" s="12"/>
+      <c r="C171" s="12"/>
+      <c r="D171" s="12"/>
+      <c r="E171" s="12"/>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="12"/>
+      <c r="B172" s="12"/>
+      <c r="C172" s="12"/>
+      <c r="D172" s="12"/>
+      <c r="E172" s="12"/>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="12"/>
+      <c r="B173" s="12"/>
+      <c r="C173" s="12"/>
+      <c r="D173" s="12"/>
+      <c r="E173" s="12"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="12"/>
+      <c r="B174" s="12"/>
+      <c r="C174" s="12"/>
+      <c r="D174" s="12"/>
+      <c r="E174" s="12"/>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" s="12"/>
+      <c r="B175" s="12"/>
+      <c r="C175" s="12"/>
+      <c r="D175" s="12"/>
+      <c r="E175" s="12"/>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" s="12"/>
+      <c r="B176" s="12"/>
+      <c r="C176" s="12"/>
+      <c r="D176" s="12"/>
+      <c r="E176" s="12"/>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="12"/>
+      <c r="B177" s="12"/>
+      <c r="C177" s="12"/>
+      <c r="D177" s="12"/>
+      <c r="E177" s="12"/>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" s="12"/>
+      <c r="B178" s="12"/>
+      <c r="C178" s="12"/>
+      <c r="D178" s="12"/>
+      <c r="E178" s="12"/>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="12"/>
+      <c r="B179" s="12"/>
+      <c r="C179" s="12"/>
+      <c r="D179" s="12"/>
+      <c r="E179" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Kubernetes parancsok.xlsx
+++ b/Kubernetes parancsok.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="120">
   <si>
     <t xml:space="preserve">Parancs </t>
   </si>
@@ -376,6 +376,21 @@
   </si>
   <si>
     <t>expose service</t>
+  </si>
+  <si>
+    <t>minikube addons enable ingress</t>
+  </si>
+  <si>
+    <t>kubectl get pod -n kube-system</t>
+  </si>
+  <si>
+    <t>minikube dashboard</t>
+  </si>
+  <si>
+    <t>kubectl get ingress -n kubernetes-dashboard</t>
+  </si>
+  <si>
+    <t>Service with multiple ports has to be named</t>
   </si>
 </sst>
 </file>
@@ -479,7 +494,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -509,6 +524,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="4" builtinId="27"/>
@@ -795,15 +811,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46.7109375" customWidth="1"/>
     <col min="2" max="2" width="51.85546875" customWidth="1"/>
-    <col min="3" max="3" width="32.5703125" customWidth="1"/>
+    <col min="3" max="3" width="42" customWidth="1"/>
     <col min="4" max="4" width="67.42578125" customWidth="1"/>
     <col min="5" max="5" width="49.42578125" customWidth="1"/>
     <col min="11" max="11" width="29.5703125" customWidth="1"/>
@@ -895,6 +911,12 @@
       <c r="B6" s="3" t="s">
         <v>93</v>
       </c>
+      <c r="C6" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -903,6 +925,9 @@
       <c r="B7" t="s">
         <v>13</v>
       </c>
+      <c r="C7" s="13" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -910,6 +935,9 @@
       </c>
       <c r="B8" t="s">
         <v>13</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1294,18 +1322,17 @@
       <c r="E55" s="12"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="B56" s="12" t="s">
-        <v>114</v>
+      <c r="A56" t="s">
+        <v>116</v>
       </c>
       <c r="C56" s="12"/>
       <c r="D56" s="12"/>
       <c r="E56" s="12"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="12"/>
+      <c r="A57" s="12" t="s">
+        <v>118</v>
+      </c>
       <c r="B57" s="12"/>
       <c r="C57" s="12"/>
       <c r="D57" s="12"/>
@@ -1313,7 +1340,9 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="12"/>
-      <c r="B58" s="12"/>
+      <c r="B58" s="12" t="s">
+        <v>119</v>
+      </c>
       <c r="C58" s="12"/>
       <c r="D58" s="12"/>
       <c r="E58" s="12"/>
